--- a/BackTest/2020-01-11 BackTest MIX.xlsx
+++ b/BackTest/2020-01-11 BackTest MIX.xlsx
@@ -486,13 +486,17 @@
         <v>3.205750000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.997</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -521,14 +525,22 @@
         <v>3.201683333333335</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,14 +568,22 @@
         <v>3.197600000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -591,14 +611,22 @@
         <v>3.193483333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,14 +654,22 @@
         <v>3.190466666666668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -661,14 +697,22 @@
         <v>3.189066666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -696,14 +740,22 @@
         <v>3.187933333333335</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -737,8 +789,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +830,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +871,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +912,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +953,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1035,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1240,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1322,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1363,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1404,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1527,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1568,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1437,8 +1609,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,8 +1650,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,8 +1691,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1732,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1773,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1814,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1855,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1896,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1717,8 +1937,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +2019,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,8 +2060,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +2101,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2142,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +2183,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2224,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2347,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2388,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2429,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2470,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2511,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2552,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2634,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2839,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2921,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2962,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +3003,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3126,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3249,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3290,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3372,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3495,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3577,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3618,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3659,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3700,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3741,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3823,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3905,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3946,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3987,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +4028,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +4069,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +4151,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +4192,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +4233,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4479,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4520,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4725,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4971,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +5094,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5135,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +5176,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +5217,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +5258,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +5299,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +5340,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5463,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5545,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5586,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5627,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5750,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5791,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5832,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +6078,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +6119,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +6283,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +6324,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6488,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +6529,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6693,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6734,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6857,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6898,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6939,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6980,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +7021,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +7062,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +7103,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +7144,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +7185,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +7226,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +7308,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +7349,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +7390,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +7431,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +7513,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +7554,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7595,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +7718,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +7800,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7841,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7923,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7964,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +8087,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6996,14 +8122,22 @@
         <v>3.127449999999999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +8165,22 @@
         <v>3.124799999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +8214,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7101,18 +8249,20 @@
         <v>3.120466666666665</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L192" t="inlineStr"/>
+        <v>2.997</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7140,20 +8290,18 @@
         <v>3.118283333333332</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M193" t="n">
@@ -7183,20 +8331,18 @@
         <v>3.115783333333332</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -7226,18 +8372,20 @@
         <v>3.114116666666665</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L195" t="inlineStr"/>
+        <v>2.997</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7265,20 +8413,18 @@
         <v>3.111449999999998</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>3.004</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -7308,16 +8454,14 @@
         <v>3.109133333333332</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7351,16 +8495,14 @@
         <v>3.106633333333332</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7394,16 +8536,14 @@
         <v>3.104733333333332</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>3.056</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7437,16 +8577,14 @@
         <v>3.103199999999998</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>3.045</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7480,16 +8618,14 @@
         <v>3.100533333333332</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>3.024</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7523,16 +8659,14 @@
         <v>3.097866666666665</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7566,16 +8700,14 @@
         <v>3.096016666666665</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7609,16 +8741,14 @@
         <v>3.094833333333332</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>3.069</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7652,16 +8782,14 @@
         <v>3.093133333333332</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7695,16 +8823,14 @@
         <v>3.090949999999999</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7738,16 +8864,14 @@
         <v>3.088933333333332</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>3.049</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7781,16 +8905,14 @@
         <v>3.087999999999999</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>3.049</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -7824,16 +8946,14 @@
         <v>3.087066666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -7867,16 +8987,14 @@
         <v>3.086133333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -7910,16 +9028,14 @@
         <v>3.083983333333333</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>3.06</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -7960,7 +9076,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -7994,16 +9110,14 @@
         <v>3.080283333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>3.079</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8044,7 +9158,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8085,7 +9199,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8126,7 +9240,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8167,7 +9281,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8201,16 +9315,14 @@
         <v>3.068966666666666</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8244,16 +9356,14 @@
         <v>3.0663</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8287,16 +9397,14 @@
         <v>3.063466666666666</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8330,16 +9438,14 @@
         <v>3.0608</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8373,16 +9479,14 @@
         <v>3.05855</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8416,16 +9520,14 @@
         <v>3.056666666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8459,16 +9561,14 @@
         <v>3.0546</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>3.02</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8502,16 +9602,14 @@
         <v>3.05255</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>3.021</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8545,16 +9643,14 @@
         <v>3.051983333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8588,16 +9684,14 @@
         <v>3.051416666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>3.12</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8631,16 +9725,14 @@
         <v>3.050083333333334</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>3.08</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8674,16 +9766,14 @@
         <v>3.049583333333334</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>3.08</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8717,16 +9807,14 @@
         <v>3.049083333333334</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8760,16 +9848,14 @@
         <v>3.048266666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8803,16 +9889,14 @@
         <v>3.04745</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8853,7 +9937,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8894,7 +9978,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8935,7 +10019,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8976,7 +10060,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9017,7 +10101,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9058,7 +10142,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9099,7 +10183,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9140,7 +10224,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9181,7 +10265,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9222,7 +10306,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9263,7 +10347,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9304,7 +10388,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9345,7 +10429,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9386,7 +10470,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9427,7 +10511,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9468,7 +10552,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9509,7 +10593,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9550,7 +10634,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9591,7 +10675,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9632,7 +10716,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9673,7 +10757,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9714,7 +10798,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9755,7 +10839,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9796,7 +10880,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9837,7 +10921,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9878,7 +10962,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9919,7 +11003,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9960,7 +11044,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10001,7 +11085,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10042,7 +11126,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10083,7 +11167,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10124,7 +11208,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10165,7 +11249,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10206,7 +11290,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10247,7 +11331,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10288,7 +11372,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10329,7 +11413,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10370,7 +11454,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10411,7 +11495,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10452,7 +11536,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10493,7 +11577,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10534,7 +11618,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10575,7 +11659,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10616,7 +11700,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10657,7 +11741,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10698,7 +11782,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10739,7 +11823,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10780,7 +11864,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10821,7 +11905,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10862,7 +11946,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10903,7 +11987,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10944,7 +12028,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10985,7 +12069,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11026,7 +12110,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11067,7 +12151,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11108,7 +12192,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11149,7 +12233,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11190,7 +12274,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11231,7 +12315,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11272,7 +12356,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11313,7 +12397,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11354,7 +12438,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11395,7 +12479,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11436,7 +12520,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11477,7 +12561,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11518,7 +12602,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11559,7 +12643,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11600,7 +12684,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11641,7 +12725,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11682,7 +12766,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11723,7 +12807,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11764,7 +12848,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11805,7 +12889,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11846,7 +12930,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11887,7 +12971,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11928,7 +13012,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11969,7 +13053,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12010,7 +13094,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12051,7 +13135,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12092,7 +13176,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12133,7 +13217,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12174,7 +13258,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12215,7 +13299,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12256,7 +13340,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12297,7 +13381,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12338,7 +13422,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12379,7 +13463,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12420,7 +13504,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12461,7 +13545,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12502,7 +13586,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12543,7 +13627,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12584,7 +13668,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12625,7 +13709,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12662,19 +13746,19 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>3.01</v>
+        <v>2.997</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>1.146495016611296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -12706,10 +13790,16 @@
         <v>1</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M327" t="n">
-        <v>1</v>
+        <v>1.139477811144478</v>
       </c>
     </row>
     <row r="328">
@@ -12773,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest MIX.xlsx
+++ b/BackTest/2020-01-11 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>24438591.89463745</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26123028.37323745</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2497,14 +2497,10 @@
         <v>21226591.28773746</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2534,19 +2530,11 @@
         <v>20904192.66193746</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2575,19 +2563,11 @@
         <v>20912691.66193746</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,19 +2596,11 @@
         <v>21077990.35593746</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2777,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2816,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2894,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2933,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2972,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3011,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3128,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3167,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3206,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3245,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3284,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3440,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3479,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3518,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3557,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3596,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3632,23 +3454,15 @@
         <v>22015962.40046783</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>1.058396730063397</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.134891485809683</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3706,7 +3520,7 @@
         <v>22020401.45833746</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3739,7 +3553,7 @@
         <v>22020401.45833746</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3772,7 +3586,7 @@
         <v>22047119.91423746</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3805,7 +3619,7 @@
         <v>22047119.91423746</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3838,7 +3652,7 @@
         <v>21978088.09713746</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3871,7 +3685,7 @@
         <v>21866491.98633746</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -8656,7 +8470,7 @@
         <v>18192509.03518495</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>3.021</v>
@@ -8695,7 +8509,7 @@
         <v>18192759.03518495</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>3.06</v>
@@ -8771,9 +8585,11 @@
         <v>18118547.77908495</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3.041</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8808,9 +8624,11 @@
         <v>18121348.45148496</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3.001</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8845,9 +8663,11 @@
         <v>18122348.45148496</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3.01</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8882,9 +8702,11 @@
         <v>18117348.45148496</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8919,9 +8741,11 @@
         <v>18117848.61601276</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3.01</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8956,9 +8780,11 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -8993,7 +8819,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>3.01</v>
@@ -9032,7 +8858,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>3.01</v>
@@ -9071,7 +8897,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>3.01</v>
@@ -9110,7 +8936,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>3.01</v>
@@ -9149,7 +8975,7 @@
         <v>18098737.92321276</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>3.01</v>
@@ -9188,7 +9014,7 @@
         <v>18321769.08911276</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>3.056</v>
@@ -9227,7 +9053,7 @@
         <v>18223599.73611276</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>3.057</v>
@@ -9266,7 +9092,7 @@
         <v>18223599.73611276</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>3.01</v>
@@ -9305,7 +9131,7 @@
         <v>18224820.93751276</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>3.01</v>
@@ -9344,9 +9170,11 @@
         <v>18226879.90391276</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3.03</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9381,9 +9209,11 @@
         <v>18199497.99131276</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9455,9 +9285,11 @@
         <v>18219497.99131276</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9529,9 +9361,11 @@
         <v>18221312.01666228</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10084,7 +9918,7 @@
         <v>17880916.31766227</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.03</v>
@@ -10123,11 +9957,9 @@
         <v>17912572.70406227</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10162,11 +9994,9 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10201,11 +10031,9 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10277,11 +10105,9 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10353,11 +10179,9 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -13130,16 +12954,18 @@
         <v>20467469.39036226</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
       <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -13169,7 +12995,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13198,11 +13028,15 @@
         <v>21849371.91266226</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13231,11 +13065,15 @@
         <v>22094754.00696226</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13264,11 +13102,15 @@
         <v>21867688.91696226</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13297,11 +13139,15 @@
         <v>21867422.95696226</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13330,11 +13176,15 @@
         <v>21867422.95696226</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13363,11 +13213,15 @@
         <v>22002411.56716226</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13396,11 +13250,15 @@
         <v>22002411.56716226</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13429,11 +13287,15 @@
         <v>22002411.56716226</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13466,7 +13328,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13499,7 +13365,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13528,11 +13398,15 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13561,11 +13435,15 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13594,11 +13472,15 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13627,11 +13509,15 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13660,11 +13546,15 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13693,11 +13583,15 @@
         <v>22138018.05082512</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13730,7 +13624,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13759,11 +13657,15 @@
         <v>27809931.40938482</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13792,11 +13694,15 @@
         <v>30911579.52049578</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13825,11 +13731,15 @@
         <v>29144975.14929578</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13858,11 +13768,15 @@
         <v>28735255.68849578</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13891,11 +13805,15 @@
         <v>28735255.68849578</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13928,7 +13846,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13961,7 +13883,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13994,7 +13920,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +13957,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14060,7 +13994,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14093,7 +14031,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14126,7 +14068,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14159,7 +14105,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14188,14 +14138,16 @@
         <v>35506723.70998673</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14221,7 +14173,7 @@
         <v>36059794.35868673</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14254,7 +14206,7 @@
         <v>35376887.05738673</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14287,7 +14239,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14320,7 +14272,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14353,7 +14305,7 @@
         <v>37995400.61567126</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14386,7 +14338,7 @@
         <v>37983468.04762987</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14419,7 +14371,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14452,7 +14404,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14485,7 +14437,7 @@
         <v>37865879.67932987</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14518,7 +14470,7 @@
         <v>37207953.29672987</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14551,7 +14503,7 @@
         <v>36641267.40772987</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14584,7 +14536,7 @@
         <v>37177229.72592987</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14617,7 +14569,7 @@
         <v>37036172.66152987</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14650,7 +14602,7 @@
         <v>34948071.25122987</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14683,7 +14635,7 @@
         <v>34416514.84772987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14716,7 +14668,7 @@
         <v>34382669.18092987</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14749,7 +14701,7 @@
         <v>34382669.18092987</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14782,7 +14734,7 @@
         <v>34537403.48952987</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14815,7 +14767,7 @@
         <v>34535112.86012987</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14848,7 +14800,7 @@
         <v>34533988.92602987</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14881,7 +14833,7 @@
         <v>34433213.09282987</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14914,7 +14866,7 @@
         <v>34671794.90862987</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14947,7 +14899,7 @@
         <v>34671794.90862987</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14980,7 +14932,7 @@
         <v>34368435.17832987</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15013,7 +14965,7 @@
         <v>34368435.17832987</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15046,7 +14998,7 @@
         <v>34364791.98372987</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15079,7 +15031,7 @@
         <v>34497269.70172987</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15112,7 +15064,7 @@
         <v>34024046.18442987</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15145,7 +15097,7 @@
         <v>34056901.17742987</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15178,7 +15130,7 @@
         <v>34107990.09792987</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15211,7 +15163,7 @@
         <v>33047051.67952987</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15244,7 +15196,7 @@
         <v>32197664.98322987</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15277,7 +15229,7 @@
         <v>32546686.93562987</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15310,7 +15262,7 @@
         <v>32495595.34852987</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15343,7 +15295,7 @@
         <v>32495974.36852987</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15376,7 +15328,7 @@
         <v>32473586.09822987</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15409,7 +15361,7 @@
         <v>32252276.82362987</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15442,7 +15394,7 @@
         <v>32252276.82362987</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15475,7 +15427,7 @@
         <v>30473487.66892987</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15508,7 +15460,7 @@
         <v>30182004.44292987</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15541,7 +15493,7 @@
         <v>30372305.88732987</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15574,7 +15526,7 @@
         <v>30373354.75522987</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15706,7 +15658,7 @@
         <v>30104961.56292987</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -20799,6 +20751,6 @@
       <c r="M597" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest MIX.xlsx
+++ b/BackTest/2020-01-11 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>25329900.65863745</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>25100343.83883745</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>25368900.76543745</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>25370182.49543745</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>25208537.08483745</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24971941.35613745</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>24438591.89463745</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24442383.96443745</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>24483659.62883745</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26123028.37323745</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2530,11 +2530,17 @@
         <v>20904192.66193746</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.997</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2569,17 @@
         <v>20912691.66193746</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.996</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2608,17 @@
         <v>21077990.35593746</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2651,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2688,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2725,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2762,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2799,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2836,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2873,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2910,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2947,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +2984,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3021,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3058,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3095,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3132,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3169,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3206,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3243,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3280,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3317,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3354,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3391,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3428,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3465,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3502,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3539,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3576,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3613,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3650,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3687,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3724,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3761,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3798,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3835,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3872,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3909,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3946,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3983,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,14 +4016,16 @@
         <v>20604643.82253746</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3916,7 +4084,7 @@
         <v>22320626.32233746</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4117,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4150,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4183,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -8305,10 +8473,14 @@
         <v>19117815.04548496</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8341,8 +8513,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8549,19 @@
         <v>17804117.09498496</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J242" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8590,19 @@
         <v>17748472.57358496</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="J243" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8631,19 @@
         <v>18169163.60738495</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8475,10 +8677,12 @@
       <c r="I245" t="n">
         <v>3.021</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -8514,7 +8718,9 @@
       <c r="I246" t="n">
         <v>3.06</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,7 +8757,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,12 +8793,12 @@
         <v>18118547.77908495</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,7 +8837,9 @@
       <c r="I249" t="n">
         <v>3.001</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,7 +8878,9 @@
       <c r="I250" t="n">
         <v>3.01</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,12 +8914,12 @@
         <v>18117348.45148496</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,7 +8958,9 @@
       <c r="I252" t="n">
         <v>3.01</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,7 +8999,9 @@
       <c r="I253" t="n">
         <v>3.039</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8819,12 +9035,12 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,7 +9079,9 @@
       <c r="I255" t="n">
         <v>3.01</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,7 +9120,9 @@
       <c r="I256" t="n">
         <v>3.01</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8941,7 +9161,9 @@
       <c r="I257" t="n">
         <v>3.01</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,7 +9202,9 @@
       <c r="I258" t="n">
         <v>3.01</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,12 +9238,12 @@
         <v>18321769.08911276</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,12 +9277,12 @@
         <v>18223599.73611276</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9097,7 +9321,9 @@
       <c r="I261" t="n">
         <v>3.01</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,12 +9357,12 @@
         <v>18224820.93751276</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,7 +9401,9 @@
       <c r="I263" t="n">
         <v>3.03</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,12 +9437,12 @@
         <v>18199497.99131276</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,10 +9476,14 @@
         <v>18199497.99131276</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9285,12 +9517,12 @@
         <v>18219497.99131276</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
         <v>3.039</v>
       </c>
-      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9327,7 +9559,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,12 +9595,12 @@
         <v>18221312.01666228</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,7 +9637,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,7 +9676,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,7 +9715,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,7 +9754,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,7 +9793,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,7 +9832,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9625,7 +9871,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9662,7 +9910,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,7 +9949,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9736,7 +9988,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,7 +10027,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,7 +10066,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,7 +10105,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,7 +10144,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,12 +10180,12 @@
         <v>17880916.31766227</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,7 +10222,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9997,7 +10261,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,7 +10300,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10071,7 +10339,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,7 +10378,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,7 +10417,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10182,7 +10456,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,7 +10495,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,7 +10534,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10293,7 +10573,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10330,7 +10612,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10367,7 +10651,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,7 +10690,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,7 +10729,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,7 +10768,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10515,7 +10807,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10552,7 +10846,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10589,7 +10885,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10626,7 +10924,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10663,7 +10963,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10700,7 +11002,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10737,7 +11041,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,7 +11080,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10811,7 +11119,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10848,7 +11158,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,7 +11197,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,7 +11236,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10959,7 +11275,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10996,7 +11314,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11033,7 +11353,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11070,7 +11392,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11107,7 +11431,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11144,7 +11470,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11181,7 +11509,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,7 +11548,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11255,7 +11587,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11292,7 +11626,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11329,7 +11665,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11366,7 +11704,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11403,7 +11743,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11440,7 +11782,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11477,7 +11821,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11514,7 +11860,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,7 +11899,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11588,7 +11938,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,7 +11977,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11662,7 +12016,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11699,7 +12055,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11736,7 +12094,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11773,7 +12133,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11810,7 +12172,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11847,7 +12211,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11884,7 +12250,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,7 +12289,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11958,7 +12328,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11995,7 +12367,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12032,7 +12406,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12069,7 +12445,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12106,7 +12484,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,7 +12523,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12180,7 +12562,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12217,7 +12601,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12254,7 +12640,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,7 +12679,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12328,7 +12718,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12365,7 +12757,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12402,7 +12796,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12439,7 +12835,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12476,7 +12874,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12513,7 +12913,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12550,7 +12952,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,7 +12991,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12624,7 +13030,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12661,7 +13069,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12698,7 +13108,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12735,7 +13147,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12772,7 +13186,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12809,7 +13225,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12846,7 +13264,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12883,7 +13303,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12920,7 +13342,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12957,7 +13381,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,7 +13420,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13031,7 +13459,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13068,7 +13498,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13105,7 +13537,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13142,7 +13576,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13179,7 +13615,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13216,7 +13654,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13253,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13290,7 +13732,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,7 +13771,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13361,19 +13807,23 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
+        <v>1.079567291872326</v>
+      </c>
+      <c r="M376" t="n">
+        <v>1.134891485809683</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13398,15 +13848,11 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13435,15 +13881,11 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13472,15 +13914,11 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13509,15 +13947,11 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13546,15 +13980,11 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13583,15 +14013,11 @@
         <v>22138018.05082512</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13620,15 +14046,11 @@
         <v>22947656.54259578</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13657,15 +14079,11 @@
         <v>27809931.40938482</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13698,11 +14116,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13735,11 +14149,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13772,11 +14182,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13809,11 +14215,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13846,11 +14248,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13883,11 +14281,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13920,11 +14314,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13957,11 +14347,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13994,11 +14380,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14031,11 +14413,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +14446,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14105,11 +14479,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14138,16 +14508,14 @@
         <v>35506723.70998673</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -14173,7 +14541,7 @@
         <v>36059794.35868673</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14206,7 +14574,7 @@
         <v>35376887.05738673</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14239,7 +14607,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14272,7 +14640,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14305,7 +14673,7 @@
         <v>37995400.61567126</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14338,7 +14706,7 @@
         <v>37983468.04762987</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14371,7 +14739,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14404,7 +14772,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14437,7 +14805,7 @@
         <v>37865879.67932987</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14470,7 +14838,7 @@
         <v>37207953.29672987</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14503,7 +14871,7 @@
         <v>36641267.40772987</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14536,7 +14904,7 @@
         <v>37177229.72592987</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14569,7 +14937,7 @@
         <v>37036172.66152987</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14602,7 +14970,7 @@
         <v>34948071.25122987</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14635,7 +15003,7 @@
         <v>34416514.84772987</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14668,7 +15036,7 @@
         <v>34382669.18092987</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14701,7 +15069,7 @@
         <v>34382669.18092987</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14734,7 +15102,7 @@
         <v>34537403.48952987</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14767,7 +15135,7 @@
         <v>34535112.86012987</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14800,7 +15168,7 @@
         <v>34533988.92602987</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14833,7 +15201,7 @@
         <v>34433213.09282987</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14866,7 +15234,7 @@
         <v>34671794.90862987</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14899,7 +15267,7 @@
         <v>34671794.90862987</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14932,7 +15300,7 @@
         <v>34368435.17832987</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14965,7 +15333,7 @@
         <v>34368435.17832987</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14998,7 +15366,7 @@
         <v>34364791.98372987</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15031,7 +15399,7 @@
         <v>34497269.70172987</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15064,7 +15432,7 @@
         <v>34024046.18442987</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15097,7 +15465,7 @@
         <v>34056901.17742987</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15130,7 +15498,7 @@
         <v>34107990.09792987</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15163,7 +15531,7 @@
         <v>33047051.67952987</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15196,7 +15564,7 @@
         <v>32197664.98322987</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15229,7 +15597,7 @@
         <v>32546686.93562987</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15262,7 +15630,7 @@
         <v>32495595.34852987</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15295,7 +15663,7 @@
         <v>32495974.36852987</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15328,7 +15696,7 @@
         <v>32473586.09822987</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15361,7 +15729,7 @@
         <v>32252276.82362987</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15394,7 +15762,7 @@
         <v>32252276.82362987</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15427,7 +15795,7 @@
         <v>30473487.66892987</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15460,7 +15828,7 @@
         <v>30182004.44292987</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15493,7 +15861,7 @@
         <v>30372305.88732987</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15526,7 +15894,7 @@
         <v>30373354.75522987</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15658,7 +16026,7 @@
         <v>30104961.56292987</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -20751,6 +21119,6 @@
       <c r="M597" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest MIX.xlsx
+++ b/BackTest/2020-01-11 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>25329900.65863745</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>25100343.83883745</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>25368900.76543745</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>25370182.49543745</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>25208537.08483745</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24971941.35613745</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>24438591.89463745</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24442383.96443745</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>24483659.62883745</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2530,17 +2530,11 @@
         <v>20904192.66193746</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2569,17 +2563,11 @@
         <v>20912691.66193746</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2608,17 +2596,11 @@
         <v>21077990.35593746</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2651,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2688,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2725,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2836,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2873,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2910,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2984,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3132,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3280,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3613,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3687,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3724,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3761,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3798,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3872,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3909,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3983,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4016,16 +3850,14 @@
         <v>20604643.82253746</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4084,7 +3916,7 @@
         <v>22320626.32233746</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4117,7 +3949,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4150,7 +3982,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4183,7 +4015,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -8473,14 +8305,10 @@
         <v>19117815.04548496</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8513,1645 +8341,1411 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F242" t="n">
+        <v>539464.247</v>
+      </c>
+      <c r="G242" t="n">
+        <v>17804117.09498496</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3</v>
+      </c>
+      <c r="F243" t="n">
+        <v>55644.5214</v>
+      </c>
+      <c r="G243" t="n">
+        <v>17748472.57358496</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="F244" t="n">
+        <v>420691.0338</v>
+      </c>
+      <c r="G244" t="n">
+        <v>18169163.60738495</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="F245" t="n">
+        <v>23345.4278</v>
+      </c>
+      <c r="G245" t="n">
+        <v>18192509.03518495</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F246" t="n">
+        <v>250</v>
+      </c>
+      <c r="G246" t="n">
+        <v>18192759.03518495</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="D247" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="F247" t="n">
+        <v>59211.2561</v>
+      </c>
+      <c r="G247" t="n">
+        <v>18133547.77908495</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="D248" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="F248" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>18118547.77908495</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2800.6724</v>
+      </c>
+      <c r="G249" t="n">
+        <v>18121348.45148496</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
         <v>3.039</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="C250" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E250" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>18122348.45148496</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>18117348.45148496</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E252" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F252" t="n">
+        <v>500.1645278051991</v>
+      </c>
+      <c r="G252" t="n">
+        <v>18117848.61601276</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F253" t="n">
+        <v>19287.6928</v>
+      </c>
+      <c r="G253" t="n">
+        <v>18098560.92321276</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E254" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3566.6596</v>
+      </c>
+      <c r="G254" t="n">
+        <v>18098560.92321276</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="F255" t="n">
+        <v>237731.3776</v>
+      </c>
+      <c r="G255" t="n">
+        <v>18098560.92321276</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F256" t="n">
+        <v>107168.3991</v>
+      </c>
+      <c r="G256" t="n">
+        <v>18098560.92321276</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F257" t="n">
+        <v>22831.6009</v>
+      </c>
+      <c r="G257" t="n">
+        <v>18098560.92321276</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="F258" t="n">
+        <v>177</v>
+      </c>
+      <c r="G258" t="n">
+        <v>18098737.92321276</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="D259" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="F259" t="n">
+        <v>223031.1659</v>
+      </c>
+      <c r="G259" t="n">
+        <v>18321769.08911276</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D260" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F260" t="n">
+        <v>98169.353</v>
+      </c>
+      <c r="G260" t="n">
+        <v>18223599.73611276</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F261" t="n">
+        <v>11830.647</v>
+      </c>
+      <c r="G261" t="n">
+        <v>18223599.73611276</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E262" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1221.2014</v>
+      </c>
+      <c r="G262" t="n">
+        <v>18224820.93751276</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D263" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2058.9664</v>
+      </c>
+      <c r="G263" t="n">
+        <v>18226879.90391276</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27381.9126</v>
+      </c>
+      <c r="G264" t="n">
+        <v>18199497.99131276</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E265" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F265" t="n">
+        <v>257.2568</v>
+      </c>
+      <c r="G265" t="n">
+        <v>18199497.99131276</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="F266" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>18219497.99131276</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1814.025349514563</v>
+      </c>
+      <c r="G267" t="n">
+        <v>18221312.01666228</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F268" t="n">
+        <v>16568.2237</v>
+      </c>
+      <c r="G268" t="n">
+        <v>18221312.01666228</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F269" t="n">
+        <v>74578.9571</v>
+      </c>
+      <c r="G269" t="n">
+        <v>18221312.01666228</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F270" t="n">
+        <v>61025.6701</v>
+      </c>
+      <c r="G270" t="n">
+        <v>18160286.34656228</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="F271" t="n">
+        <v>203887.2937</v>
+      </c>
+      <c r="G271" t="n">
+        <v>18364173.64026228</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="F272" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>18364173.64026228</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="F273" t="n">
+        <v>400</v>
+      </c>
+      <c r="G273" t="n">
+        <v>18364173.64026228</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="F274" t="n">
+        <v>908.4463</v>
+      </c>
+      <c r="G274" t="n">
+        <v>18365082.08656228</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F275" t="n">
+        <v>17930</v>
+      </c>
+      <c r="G275" t="n">
+        <v>18347152.08656228</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F276" t="n">
+        <v>816786.5484</v>
+      </c>
+      <c r="G276" t="n">
+        <v>17530365.53816228</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="F277" t="n">
+        <v>68242.5555</v>
+      </c>
+      <c r="G277" t="n">
+        <v>17462122.98266228</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F278" t="n">
+        <v>92059.55499999999</v>
+      </c>
+      <c r="G278" t="n">
+        <v>17554182.53766228</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="J278" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F279" t="n">
+        <v>203152.9269</v>
+      </c>
+      <c r="G279" t="n">
+        <v>17757335.46456227</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J279" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F280" t="n">
+        <v>916.0411</v>
+      </c>
+      <c r="G280" t="n">
+        <v>17757335.46456227</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J280" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F281" t="n">
+        <v>311207.435</v>
+      </c>
+      <c r="G281" t="n">
+        <v>17757335.46456227</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F282" t="n">
+        <v>163345.8023</v>
+      </c>
+      <c r="G282" t="n">
+        <v>17920681.26686227</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J282" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E242" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F242" t="n">
-        <v>539464.247</v>
-      </c>
-      <c r="G242" t="n">
-        <v>17804117.09498496</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>3</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3</v>
-      </c>
-      <c r="D243" t="n">
-        <v>3</v>
-      </c>
-      <c r="E243" t="n">
-        <v>3</v>
-      </c>
-      <c r="F243" t="n">
-        <v>55644.5214</v>
-      </c>
-      <c r="G243" t="n">
-        <v>17748472.57358496</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>3</v>
-      </c>
-      <c r="C244" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="D244" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E244" t="n">
-        <v>3</v>
-      </c>
-      <c r="F244" t="n">
-        <v>420691.0338</v>
-      </c>
-      <c r="G244" t="n">
-        <v>18169163.60738495</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D245" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E245" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="F245" t="n">
-        <v>23345.4278</v>
-      </c>
-      <c r="G245" t="n">
-        <v>18192509.03518495</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="J245" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C246" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D246" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E246" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F246" t="n">
-        <v>250</v>
-      </c>
-      <c r="G246" t="n">
-        <v>18192759.03518495</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J246" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="D247" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="E247" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="F247" t="n">
-        <v>59211.2561</v>
-      </c>
-      <c r="G247" t="n">
-        <v>18133547.77908495</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C248" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="D248" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E248" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="F248" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G248" t="n">
-        <v>18118547.77908495</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E249" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2800.6724</v>
-      </c>
-      <c r="G249" t="n">
-        <v>18121348.45148496</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.001</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C250" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D250" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E250" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>18122348.45148496</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J250" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D251" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E251" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F251" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G251" t="n">
-        <v>18117348.45148496</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C252" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D252" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E252" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F252" t="n">
-        <v>500.1645278051991</v>
-      </c>
-      <c r="G252" t="n">
-        <v>18117848.61601276</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J252" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D253" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E253" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F253" t="n">
-        <v>19287.6928</v>
-      </c>
-      <c r="G253" t="n">
-        <v>18098560.92321276</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J253" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D254" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E254" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3566.6596</v>
-      </c>
-      <c r="G254" t="n">
-        <v>18098560.92321276</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="C255" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D255" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E255" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="F255" t="n">
-        <v>237731.3776</v>
-      </c>
-      <c r="G255" t="n">
-        <v>18098560.92321276</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J255" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C256" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D256" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E256" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F256" t="n">
-        <v>107168.3991</v>
-      </c>
-      <c r="G256" t="n">
-        <v>18098560.92321276</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J256" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C257" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D257" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E257" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F257" t="n">
-        <v>22831.6009</v>
-      </c>
-      <c r="G257" t="n">
-        <v>18098560.92321276</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J257" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="D258" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="E258" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="F258" t="n">
-        <v>177</v>
-      </c>
-      <c r="G258" t="n">
-        <v>18098737.92321276</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J258" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="C259" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="D259" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="E259" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="F259" t="n">
-        <v>223031.1659</v>
-      </c>
-      <c r="G259" t="n">
-        <v>18321769.08911276</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="C260" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D260" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E260" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F260" t="n">
-        <v>98169.353</v>
-      </c>
-      <c r="G260" t="n">
-        <v>18223599.73611276</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C261" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D261" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E261" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F261" t="n">
-        <v>11830.647</v>
-      </c>
-      <c r="G261" t="n">
-        <v>18223599.73611276</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="J261" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C262" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D262" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E262" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1221.2014</v>
-      </c>
-      <c r="G262" t="n">
-        <v>18224820.93751276</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="C263" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D263" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E263" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2058.9664</v>
-      </c>
-      <c r="G263" t="n">
-        <v>18226879.90391276</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J263" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C264" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D264" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E264" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F264" t="n">
-        <v>27381.9126</v>
-      </c>
-      <c r="G264" t="n">
-        <v>18199497.99131276</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F265" t="n">
-        <v>257.2568</v>
-      </c>
-      <c r="G265" t="n">
-        <v>18199497.99131276</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J265" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="D266" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="E266" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="F266" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G266" t="n">
-        <v>18219497.99131276</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D267" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E267" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1814.025349514563</v>
-      </c>
-      <c r="G267" t="n">
-        <v>18221312.01666228</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D268" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E268" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F268" t="n">
-        <v>16568.2237</v>
-      </c>
-      <c r="G268" t="n">
-        <v>18221312.01666228</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D269" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E269" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F269" t="n">
-        <v>74578.9571</v>
-      </c>
-      <c r="G269" t="n">
-        <v>18221312.01666228</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C270" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D270" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="E270" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F270" t="n">
-        <v>61025.6701</v>
-      </c>
-      <c r="G270" t="n">
-        <v>18160286.34656228</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="D271" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="E271" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="F271" t="n">
-        <v>203887.2937</v>
-      </c>
-      <c r="G271" t="n">
-        <v>18364173.64026228</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="D272" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="E272" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="F272" t="n">
-        <v>37000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>18364173.64026228</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="D273" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="E273" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="F273" t="n">
-        <v>400</v>
-      </c>
-      <c r="G273" t="n">
-        <v>18364173.64026228</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E274" t="n">
-        <v>3.079</v>
-      </c>
-      <c r="F274" t="n">
-        <v>908.4463</v>
-      </c>
-      <c r="G274" t="n">
-        <v>18365082.08656228</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D275" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E275" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F275" t="n">
-        <v>17930</v>
-      </c>
-      <c r="G275" t="n">
-        <v>18347152.08656228</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D276" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E276" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F276" t="n">
-        <v>816786.5484</v>
-      </c>
-      <c r="G276" t="n">
-        <v>17530365.53816228</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="D277" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E277" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="F277" t="n">
-        <v>68242.5555</v>
-      </c>
-      <c r="G277" t="n">
-        <v>17462122.98266228</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C278" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D278" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E278" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F278" t="n">
-        <v>92059.55499999999</v>
-      </c>
-      <c r="G278" t="n">
-        <v>17554182.53766228</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D279" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E279" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F279" t="n">
-        <v>203152.9269</v>
-      </c>
-      <c r="G279" t="n">
-        <v>17757335.46456227</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D280" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E280" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F280" t="n">
-        <v>916.0411</v>
-      </c>
-      <c r="G280" t="n">
-        <v>17757335.46456227</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C281" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D281" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E281" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F281" t="n">
-        <v>311207.435</v>
-      </c>
-      <c r="G281" t="n">
-        <v>17757335.46456227</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D282" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E282" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F282" t="n">
-        <v>163345.8023</v>
-      </c>
-      <c r="G282" t="n">
-        <v>17920681.26686227</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +9774,13 @@
         <v>17880916.31766227</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3.03</v>
+      </c>
       <c r="J283" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10219,11 +9815,13 @@
         <v>17912572.70406227</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3.02</v>
+      </c>
       <c r="J284" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10258,11 +9856,13 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3.021</v>
+      </c>
       <c r="J285" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10297,11 +9897,13 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J286" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10336,11 +9938,13 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J287" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10375,11 +9979,13 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3.08</v>
+      </c>
       <c r="J288" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10414,11 +10020,13 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3.08</v>
+      </c>
       <c r="J289" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10453,11 +10061,13 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3.08</v>
+      </c>
       <c r="J290" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10492,11 +10102,13 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J291" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10531,11 +10143,13 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J292" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10570,11 +10184,13 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J293" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10609,11 +10225,13 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J294" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10648,11 +10266,13 @@
         <v>17949959.89306227</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J295" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10687,11 +10307,13 @@
         <v>17952579.41196227</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.082</v>
+      </c>
       <c r="J296" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10726,11 +10348,13 @@
         <v>17721897.96316227</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J297" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10765,11 +10389,13 @@
         <v>17721897.96316227</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J298" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10804,11 +10430,13 @@
         <v>17723982.29746227</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J299" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10843,11 +10471,13 @@
         <v>17723982.29746227</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J300" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10882,11 +10512,13 @@
         <v>17593277.74046227</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J301" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10921,11 +10553,13 @@
         <v>17593277.74046227</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J302" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10960,11 +10594,13 @@
         <v>17902520.18176227</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J303" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10999,11 +10635,13 @@
         <v>17903265.25906227</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3.084</v>
+      </c>
       <c r="J304" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11038,11 +10676,13 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J305" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11077,11 +10717,13 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>3.084</v>
+      </c>
       <c r="J306" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11116,11 +10758,13 @@
         <v>17745525.94166227</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.084</v>
+      </c>
       <c r="J307" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11155,11 +10799,13 @@
         <v>17746192.37516227</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J308" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11194,11 +10840,13 @@
         <v>17746192.37516227</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J309" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11233,11 +10881,13 @@
         <v>17873021.93436227</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J310" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11272,11 +10922,13 @@
         <v>17880129.92436226</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3.128</v>
+      </c>
       <c r="J311" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11315,7 +10967,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11354,7 +11006,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11393,7 +11045,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11432,7 +11084,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11471,7 +11123,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11510,7 +11162,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11549,7 +11201,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11588,7 +11240,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11627,7 +11279,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11666,7 +11318,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11705,7 +11357,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11744,7 +11396,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11783,7 +11435,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11822,7 +11474,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11861,7 +11513,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11900,7 +11552,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11939,7 +11591,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11978,7 +11630,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12017,7 +11669,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12056,7 +11708,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12095,7 +11747,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12134,7 +11786,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12173,7 +11825,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12212,7 +11864,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12251,7 +11903,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12290,7 +11942,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12329,7 +11981,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12368,7 +12020,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12407,7 +12059,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12446,7 +12098,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12485,7 +12137,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12524,7 +12176,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12563,7 +12215,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12602,7 +12254,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12641,7 +12293,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12680,7 +12332,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12719,7 +12371,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12758,7 +12410,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12797,7 +12449,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12836,7 +12488,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12875,7 +12527,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12914,7 +12566,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12953,7 +12605,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12992,7 +12644,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13031,7 +12683,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13070,7 +12722,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13109,7 +12761,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13148,7 +12800,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13187,7 +12839,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13226,7 +12878,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13265,7 +12917,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13304,7 +12956,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13343,7 +12995,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13382,7 +13034,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13421,7 +13073,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13460,7 +13112,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13499,7 +13151,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13538,7 +13190,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13577,7 +13229,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13616,7 +13268,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13655,7 +13307,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13694,7 +13346,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13733,7 +13385,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13772,7 +13424,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13807,650 +13459,764 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="C377" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="D377" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="E377" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="F377" t="n">
+        <v>89794.38</v>
+      </c>
+      <c r="G377" t="n">
+        <v>21991636.66926226</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="C378" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D378" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="E378" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="F378" t="n">
+        <v>158506.8319832429</v>
+      </c>
+      <c r="G378" t="n">
+        <v>21833129.83727902</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="C379" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E379" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2632.22</v>
+      </c>
+      <c r="G379" t="n">
+        <v>21833129.83727902</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="C380" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E380" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="F380" t="n">
+        <v>92992.8544</v>
+      </c>
+      <c r="G380" t="n">
+        <v>21926122.69167902</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C381" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D381" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="E381" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F381" t="n">
+        <v>96970.8944</v>
+      </c>
+      <c r="G381" t="n">
+        <v>21926122.69167902</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="C382" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E382" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F382" t="n">
+        <v>211895.3591460944</v>
+      </c>
+      <c r="G382" t="n">
+        <v>22138018.05082512</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C383" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E383" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F383" t="n">
+        <v>809638.4917706626</v>
+      </c>
+      <c r="G383" t="n">
+        <v>22947656.54259578</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="C384" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D384" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E384" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="F384" t="n">
+        <v>4862274.866789044</v>
+      </c>
+      <c r="G384" t="n">
+        <v>27809931.40938482</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="E385" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="F385" t="n">
+        <v>3101648.111110956</v>
+      </c>
+      <c r="G385" t="n">
+        <v>30911579.52049578</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D386" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="E386" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1766604.3712</v>
+      </c>
+      <c r="G386" t="n">
+        <v>29144975.14929578</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D387" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E387" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F387" t="n">
+        <v>409719.4608</v>
+      </c>
+      <c r="G387" t="n">
+        <v>28735255.68849578</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D388" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E388" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F388" t="n">
+        <v>103428.0896</v>
+      </c>
+      <c r="G388" t="n">
+        <v>28735255.68849578</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="E389" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F389" t="n">
+        <v>155947.4514</v>
+      </c>
+      <c r="G389" t="n">
+        <v>28579308.23709578</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C390" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="E390" t="n">
+        <v>3.332</v>
+      </c>
+      <c r="F390" t="n">
+        <v>66080.8567</v>
+      </c>
+      <c r="G390" t="n">
+        <v>28645389.09379578</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3.402</v>
+      </c>
+      <c r="C391" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D391" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="E391" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F391" t="n">
+        <v>360967.6837090487</v>
+      </c>
+      <c r="G391" t="n">
+        <v>28284421.41008673</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D392" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E392" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F392" t="n">
+        <v>145403.9294</v>
+      </c>
+      <c r="G392" t="n">
+        <v>28429825.33948673</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="C393" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D393" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E393" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="F393" t="n">
+        <v>593201.0998</v>
+      </c>
+      <c r="G393" t="n">
+        <v>29023026.43928673</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F394" t="n">
+        <v>5271153.0128</v>
+      </c>
+      <c r="G394" t="n">
+        <v>34294179.45208673</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="C395" t="n">
+        <v>3.433</v>
+      </c>
+      <c r="D395" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="E395" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="F395" t="n">
+        <v>696400.5742</v>
+      </c>
+      <c r="G395" t="n">
+        <v>34990580.02628673</v>
+      </c>
+      <c r="H395" t="n">
+        <v>2</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K395" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L376" t="n">
-        <v>1.079567291872326</v>
-      </c>
-      <c r="M376" t="n">
-        <v>1.134891485809683</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="C377" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="D377" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="E377" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="F377" t="n">
-        <v>89794.38</v>
-      </c>
-      <c r="G377" t="n">
-        <v>21991636.66926226</v>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="C378" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D378" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="E378" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="F378" t="n">
-        <v>158506.8319832429</v>
-      </c>
-      <c r="G378" t="n">
-        <v>21833129.83727902</v>
-      </c>
-      <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="C379" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D379" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E379" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="F379" t="n">
-        <v>2632.22</v>
-      </c>
-      <c r="G379" t="n">
-        <v>21833129.83727902</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="C380" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D380" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E380" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="F380" t="n">
-        <v>92992.8544</v>
-      </c>
-      <c r="G380" t="n">
-        <v>21926122.69167902</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C381" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D381" t="n">
-        <v>3.306</v>
-      </c>
-      <c r="E381" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F381" t="n">
-        <v>96970.8944</v>
-      </c>
-      <c r="G381" t="n">
-        <v>21926122.69167902</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>3.306</v>
-      </c>
-      <c r="C382" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="D382" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="E382" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F382" t="n">
-        <v>211895.3591460944</v>
-      </c>
-      <c r="G382" t="n">
-        <v>22138018.05082512</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="C383" t="n">
-        <v>3.351</v>
-      </c>
-      <c r="D383" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E383" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F383" t="n">
-        <v>809638.4917706626</v>
-      </c>
-      <c r="G383" t="n">
-        <v>22947656.54259578</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="C384" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D384" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E384" t="n">
-        <v>3.378</v>
-      </c>
-      <c r="F384" t="n">
-        <v>4862274.866789044</v>
-      </c>
-      <c r="G384" t="n">
-        <v>27809931.40938482</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C385" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="D385" t="n">
-        <v>3.487</v>
-      </c>
-      <c r="E385" t="n">
-        <v>3.413</v>
-      </c>
-      <c r="F385" t="n">
-        <v>3101648.111110956</v>
-      </c>
-      <c r="G385" t="n">
-        <v>30911579.52049578</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="C386" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="D386" t="n">
-        <v>3.487</v>
-      </c>
-      <c r="E386" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F386" t="n">
-        <v>1766604.3712</v>
-      </c>
-      <c r="G386" t="n">
-        <v>29144975.14929578</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C387" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D387" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E387" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F387" t="n">
-        <v>409719.4608</v>
-      </c>
-      <c r="G387" t="n">
-        <v>28735255.68849578</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="C388" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D388" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="E388" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F388" t="n">
-        <v>103428.0896</v>
-      </c>
-      <c r="G388" t="n">
-        <v>28735255.68849578</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>3.351</v>
-      </c>
-      <c r="C389" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D389" t="n">
-        <v>3.351</v>
-      </c>
-      <c r="E389" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F389" t="n">
-        <v>155947.4514</v>
-      </c>
-      <c r="G389" t="n">
-        <v>28579308.23709578</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C390" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D390" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="E390" t="n">
-        <v>3.332</v>
-      </c>
-      <c r="F390" t="n">
-        <v>66080.8567</v>
-      </c>
-      <c r="G390" t="n">
-        <v>28645389.09379578</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>3.402</v>
-      </c>
-      <c r="C391" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D391" t="n">
-        <v>3.448</v>
-      </c>
-      <c r="E391" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="F391" t="n">
-        <v>360967.6837090487</v>
-      </c>
-      <c r="G391" t="n">
-        <v>28284421.41008673</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="C392" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D392" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="E392" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F392" t="n">
-        <v>145403.9294</v>
-      </c>
-      <c r="G392" t="n">
-        <v>28429825.33948673</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="C393" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D393" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E393" t="n">
-        <v>3.398</v>
-      </c>
-      <c r="F393" t="n">
-        <v>593201.0998</v>
-      </c>
-      <c r="G393" t="n">
-        <v>29023026.43928673</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="C394" t="n">
-        <v>3.431</v>
-      </c>
-      <c r="D394" t="n">
-        <v>3.437</v>
-      </c>
-      <c r="E394" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="F394" t="n">
-        <v>5271153.0128</v>
-      </c>
-      <c r="G394" t="n">
-        <v>34294179.45208673</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>3.431</v>
-      </c>
-      <c r="C395" t="n">
-        <v>3.433</v>
-      </c>
-      <c r="D395" t="n">
-        <v>3.437</v>
-      </c>
-      <c r="E395" t="n">
-        <v>3.431</v>
-      </c>
-      <c r="F395" t="n">
-        <v>696400.5742</v>
-      </c>
-      <c r="G395" t="n">
-        <v>34990580.02628673</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
+        <v>1.131754966887417</v>
+      </c>
+      <c r="M395" t="n">
+        <v>1.136789297658863</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -14475,7 +14241,7 @@
         <v>34856116.59718673</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14508,7 +14274,7 @@
         <v>35506723.70998673</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14541,7 +14307,7 @@
         <v>36059794.35868673</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14574,7 +14340,7 @@
         <v>35376887.05738673</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14607,7 +14373,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14640,7 +14406,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14673,7 +14439,7 @@
         <v>37995400.61567126</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14706,7 +14472,7 @@
         <v>37983468.04762987</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14739,7 +14505,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14772,7 +14538,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14805,7 +14571,7 @@
         <v>37865879.67932987</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14838,7 +14604,7 @@
         <v>37207953.29672987</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14871,7 +14637,7 @@
         <v>36641267.40772987</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14904,7 +14670,7 @@
         <v>37177229.72592987</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14937,7 +14703,7 @@
         <v>37036172.66152987</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15003,7 +14769,7 @@
         <v>34416514.84772987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
